--- a/xlsx/Wrightbus_intext.xlsx
+++ b/xlsx/Wrightbus_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t>Wrightbus</t>
   </si>
@@ -29,13 +29,13 @@
     <t>北爱尔兰</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Wrightbus</t>
+    <t>政策_政策_混合动力车辆_Wrightbus</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E7%B1%B3%E7%B4%8D</t>
   </si>
   <si>
-    <t>巴利米納</t>
+    <t>巴利米纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -47,33 +47,30 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E9%BE%8D%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>九龍巴士</t>
+    <t>九龙巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E8%B6%85%E7%B4%9A%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>富豪超級奧林匹克巴士</t>
+    <t>富豪超级奥林匹克巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>第一集團</t>
+    <t>第一集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
@@ -107,19 +104,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%89%E6%99%AF%E7%81%A3%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>愉景灣巴士</t>
+    <t>愉景湾巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E9%90%B5%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>港鐵巴士</t>
+    <t>港铁巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富豪集團</t>
+    <t>富豪集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AAB9TL%E5%B7%B4%E5%A3%AB</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>新捷運</t>
+    <t>新捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%80%AB%E6%95%A6%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>新倫敦巴士</t>
+    <t>新伦敦巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E6%97%A5%E8%9D%95</t>
   </si>
   <si>
-    <t>萊特日蝕</t>
+    <t>莱特日蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wright_Gemini_2</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E8%84%88%E8%A1%9D%E9%9B%99%E5%AD%90%E6%98%9F%E5%9E%8B</t>
   </si>
   <si>
-    <t>萊特脈衝雙子星型</t>
+    <t>莱特脉冲双子星型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%BD%A6</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%96%AF%E6%95%A6</t>
@@ -311,25 +308,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%83%A1%E7%88%BE%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>范胡爾公司</t>
+    <t>范胡尔公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>VDL集團</t>
+    <t>VDL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E9%9C%8D%E5%A4%AB</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/MAN%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>MAN集團</t>
+    <t>MAN集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士</t>
+    <t>梅赛德斯-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%89%B6%E6%A1%91%E5%8D%A1%E5%AE%A2%E8%BD%A6</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%9C%B8_(%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>歐霸 (汽車公司)</t>
+    <t>欧霸 (汽车公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E7%91%9E%E6%96%AF%E5%AE%A2%E8%BD%A6</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%B1%E6%B4%9B%E6%96%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>伊凱洛斯巴士</t>
+    <t>伊凯洛斯巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -473,25 +470,25 @@
     <t>https://zh.wikipedia.org/wiki/UD%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>UD卡車</t>
+    <t>UD卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%9F%BA%E6%B1%BD%E8%BD%A6%E5%8E%82</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99</t>
@@ -599,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E6%B1%BD%E8%BD%A6</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%B4%B2%E9%BE%8D</t>
   </si>
   <si>
-    <t>五洲龍</t>
+    <t>五洲龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E9%BE%99%E6%B1%BD%E8%BD%A6</t>
@@ -737,19 +734,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8B%95%E8%83%BD%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>華德動能科技</t>
+    <t>华德动能科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1367,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1393,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>35</v>
@@ -1422,10 +1419,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1451,10 +1448,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>9</v>
@@ -1480,10 +1477,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1509,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1538,10 +1535,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1567,10 +1564,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1596,10 +1593,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1654,10 +1651,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1683,10 +1680,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1712,10 +1709,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1741,10 +1738,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1770,10 +1767,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1799,10 +1796,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1828,10 +1825,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1857,10 +1854,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1886,10 +1883,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1915,10 +1912,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1944,10 +1941,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1973,10 +1970,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2002,10 +1999,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
         <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2031,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
         <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2060,10 +2057,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
         <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>46</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2089,10 +2086,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2118,10 +2115,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
         <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2147,10 +2144,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2176,10 +2173,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
         <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2205,10 +2202,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
         <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2234,10 +2231,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
         <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2263,10 +2260,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2292,10 +2289,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
         <v>67</v>
-      </c>
-      <c r="F41" t="s">
-        <v>68</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2321,10 +2318,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
         <v>69</v>
-      </c>
-      <c r="F42" t="s">
-        <v>70</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2350,10 +2347,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
         <v>71</v>
-      </c>
-      <c r="F43" t="s">
-        <v>72</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2379,10 +2376,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
         <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>74</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2408,10 +2405,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
         <v>75</v>
-      </c>
-      <c r="F45" t="s">
-        <v>76</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2437,10 +2434,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
         <v>77</v>
-      </c>
-      <c r="F46" t="s">
-        <v>78</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2466,10 +2463,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
         <v>79</v>
-      </c>
-      <c r="F47" t="s">
-        <v>80</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2495,10 +2492,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
         <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2524,10 +2521,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
         <v>83</v>
-      </c>
-      <c r="F49" t="s">
-        <v>84</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2553,10 +2550,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" t="s">
         <v>85</v>
-      </c>
-      <c r="F50" t="s">
-        <v>86</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2582,10 +2579,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s">
         <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>88</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2611,10 +2608,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
         <v>89</v>
-      </c>
-      <c r="F52" t="s">
-        <v>90</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2640,10 +2637,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
         <v>91</v>
-      </c>
-      <c r="F53" t="s">
-        <v>92</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2669,10 +2666,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
         <v>93</v>
-      </c>
-      <c r="F54" t="s">
-        <v>94</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2698,10 +2695,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
         <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>96</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2727,10 +2724,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
         <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2756,10 +2753,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
         <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2785,10 +2782,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
         <v>101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2814,10 +2811,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" t="s">
         <v>103</v>
-      </c>
-      <c r="F59" t="s">
-        <v>104</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2843,10 +2840,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
         <v>105</v>
-      </c>
-      <c r="F60" t="s">
-        <v>106</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2872,10 +2869,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
         <v>107</v>
-      </c>
-      <c r="F61" t="s">
-        <v>108</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2901,10 +2898,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
         <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2930,10 +2927,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
         <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2959,10 +2956,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" t="s">
         <v>113</v>
-      </c>
-      <c r="F64" t="s">
-        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2988,10 +2985,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
         <v>115</v>
-      </c>
-      <c r="F65" t="s">
-        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3017,10 +3014,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s">
         <v>117</v>
-      </c>
-      <c r="F66" t="s">
-        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3046,10 +3043,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
         <v>119</v>
-      </c>
-      <c r="F67" t="s">
-        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3075,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
         <v>121</v>
-      </c>
-      <c r="F68" t="s">
-        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3104,10 +3101,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
         <v>123</v>
-      </c>
-      <c r="F69" t="s">
-        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3133,10 +3130,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" t="s">
         <v>125</v>
-      </c>
-      <c r="F70" t="s">
-        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3162,10 +3159,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
         <v>127</v>
-      </c>
-      <c r="F71" t="s">
-        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3191,10 +3188,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" t="s">
         <v>129</v>
-      </c>
-      <c r="F72" t="s">
-        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3220,10 +3217,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
         <v>131</v>
-      </c>
-      <c r="F73" t="s">
-        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3249,10 +3246,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" t="s">
         <v>133</v>
-      </c>
-      <c r="F74" t="s">
-        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3278,10 +3275,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" t="s">
         <v>135</v>
-      </c>
-      <c r="F75" t="s">
-        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3307,10 +3304,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="s">
         <v>137</v>
-      </c>
-      <c r="F76" t="s">
-        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3336,10 +3333,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" t="s">
         <v>139</v>
-      </c>
-      <c r="F77" t="s">
-        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3365,10 +3362,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
         <v>141</v>
-      </c>
-      <c r="F78" t="s">
-        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3394,10 +3391,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3423,10 +3420,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3452,10 +3449,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3481,10 +3478,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
         <v>149</v>
-      </c>
-      <c r="F82" t="s">
-        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3510,10 +3507,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
         <v>151</v>
-      </c>
-      <c r="F83" t="s">
-        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3539,10 +3536,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
         <v>153</v>
-      </c>
-      <c r="F84" t="s">
-        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3568,10 +3565,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" t="s">
         <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3597,10 +3594,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
         <v>157</v>
-      </c>
-      <c r="F86" t="s">
-        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3626,10 +3623,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3655,10 +3652,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3684,10 +3681,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
         <v>163</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3713,10 +3710,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3742,10 +3739,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3771,10 +3768,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
         <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3800,10 +3797,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
         <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3829,10 +3826,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" t="s">
         <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -3858,10 +3855,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" t="s">
         <v>175</v>
-      </c>
-      <c r="F95" t="s">
-        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3887,10 +3884,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" t="s">
         <v>177</v>
-      </c>
-      <c r="F96" t="s">
-        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3916,10 +3913,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" t="s">
         <v>179</v>
-      </c>
-      <c r="F97" t="s">
-        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" t="s">
         <v>181</v>
-      </c>
-      <c r="F98" t="s">
-        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3974,10 +3971,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" t="s">
         <v>183</v>
-      </c>
-      <c r="F99" t="s">
-        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4003,10 +4000,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" t="s">
         <v>185</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4032,10 +4029,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
         <v>185</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4061,10 +4058,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s">
         <v>187</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4090,10 +4087,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4119,10 +4116,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
         <v>191</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4148,10 +4145,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" t="s">
         <v>193</v>
-      </c>
-      <c r="F105" t="s">
-        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4177,10 +4174,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
         <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4206,10 +4203,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" t="s">
         <v>197</v>
-      </c>
-      <c r="F107" t="s">
-        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4235,10 +4232,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" t="s">
         <v>199</v>
-      </c>
-      <c r="F108" t="s">
-        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4264,10 +4261,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" t="s">
         <v>201</v>
-      </c>
-      <c r="F109" t="s">
-        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4293,10 +4290,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" t="s">
         <v>203</v>
-      </c>
-      <c r="F110" t="s">
-        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4322,10 +4319,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>204</v>
+      </c>
+      <c r="F111" t="s">
         <v>205</v>
-      </c>
-      <c r="F111" t="s">
-        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4351,10 +4348,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" t="s">
         <v>207</v>
-      </c>
-      <c r="F112" t="s">
-        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4380,10 +4377,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" t="s">
         <v>209</v>
-      </c>
-      <c r="F113" t="s">
-        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4409,10 +4406,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" t="s">
         <v>211</v>
-      </c>
-      <c r="F114" t="s">
-        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4438,10 +4435,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>212</v>
+      </c>
+      <c r="F115" t="s">
         <v>213</v>
-      </c>
-      <c r="F115" t="s">
-        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4467,10 +4464,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116" t="s">
         <v>215</v>
-      </c>
-      <c r="F116" t="s">
-        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4496,10 +4493,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>216</v>
+      </c>
+      <c r="F117" t="s">
         <v>217</v>
-      </c>
-      <c r="F117" t="s">
-        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4525,10 +4522,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>218</v>
+      </c>
+      <c r="F118" t="s">
         <v>219</v>
-      </c>
-      <c r="F118" t="s">
-        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4554,10 +4551,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>220</v>
+      </c>
+      <c r="F119" t="s">
         <v>221</v>
-      </c>
-      <c r="F119" t="s">
-        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4583,10 +4580,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>222</v>
+      </c>
+      <c r="F120" t="s">
         <v>223</v>
-      </c>
-      <c r="F120" t="s">
-        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4612,10 +4609,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>224</v>
+      </c>
+      <c r="F121" t="s">
         <v>225</v>
-      </c>
-      <c r="F121" t="s">
-        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4641,10 +4638,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" t="s">
         <v>227</v>
-      </c>
-      <c r="F122" t="s">
-        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4670,10 +4667,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>228</v>
+      </c>
+      <c r="F123" t="s">
         <v>229</v>
-      </c>
-      <c r="F123" t="s">
-        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4699,10 +4696,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>230</v>
+      </c>
+      <c r="F124" t="s">
         <v>231</v>
-      </c>
-      <c r="F124" t="s">
-        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4728,10 +4725,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F125" t="s">
         <v>233</v>
-      </c>
-      <c r="F125" t="s">
-        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4757,10 +4754,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" t="s">
         <v>235</v>
-      </c>
-      <c r="F126" t="s">
-        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4786,10 +4783,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" t="s">
         <v>237</v>
-      </c>
-      <c r="F127" t="s">
-        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4815,10 +4812,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
         <v>239</v>
-      </c>
-      <c r="F128" t="s">
-        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4844,10 +4841,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" t="s">
         <v>241</v>
-      </c>
-      <c r="F129" t="s">
-        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4873,10 +4870,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
         <v>243</v>
-      </c>
-      <c r="F130" t="s">
-        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4902,10 +4899,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" t="s">
         <v>245</v>
-      </c>
-      <c r="F131" t="s">
-        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4931,10 +4928,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" t="s">
         <v>247</v>
-      </c>
-      <c r="F132" t="s">
-        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -4960,10 +4957,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
